--- a/Analyzed/try6/data_2009.xlsx
+++ b/Analyzed/try6/data_2009.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,6 +503,11 @@
           <t>CZcomb</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>XZcomb</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -547,13 +552,13 @@
         <v>60.26543149571023</v>
       </c>
       <c r="N2">
-        <v>114.072</v>
+        <v>344.512</v>
       </c>
       <c r="O2">
-        <v>969.73</v>
+        <v>-130.27</v>
       </c>
       <c r="P2">
-        <v>485.9844911999999</v>
+        <v>400.1914413757987</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -571,10 +576,10 @@
         <v>7</v>
       </c>
       <c r="V2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X2">
         <v>1</v>
@@ -583,16 +588,19 @@
         <v>2</v>
       </c>
       <c r="Z2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA2">
         <v>1</v>
       </c>
       <c r="AB2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC2">
         <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -638,13 +646,13 @@
         <v>70.90677959012908</v>
       </c>
       <c r="N3">
-        <v>193.676</v>
+        <v>460.04</v>
       </c>
       <c r="O3">
-        <v>1087.22</v>
+        <v>-112.78</v>
       </c>
       <c r="P3">
-        <v>512.8793856</v>
+        <v>427.6891980067592</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -665,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>1</v>
@@ -683,6 +691,9 @@
         <v>1</v>
       </c>
       <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
         <v>1</v>
       </c>
     </row>
@@ -729,13 +740,13 @@
         <v>61.39269853968487</v>
       </c>
       <c r="N4">
-        <v>164.752</v>
+        <v>398.496</v>
       </c>
       <c r="O4">
-        <v>1026.58</v>
+        <v>-123.42</v>
       </c>
       <c r="P4">
-        <v>454.17564</v>
+        <v>347.6880060315963</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -759,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -768,13 +779,16 @@
         <v>1</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>1</v>
       </c>
       <c r="AC4">
         <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -820,13 +834,13 @@
         <v>67.15155325280395</v>
       </c>
       <c r="N5">
-        <v>53.36800000000001</v>
+        <v>324.296</v>
       </c>
       <c r="O5">
-        <v>947.79</v>
+        <v>-152.21</v>
       </c>
       <c r="P5">
-        <v>447.1994232</v>
+        <v>348.2377142661429</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -847,25 +861,28 @@
         <v>3</v>
       </c>
       <c r="W5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA5">
         <v>3</v>
       </c>
       <c r="AB5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC5">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -911,13 +928,13 @@
         <v>63.01248371532319</v>
       </c>
       <c r="N6">
-        <v>138.88</v>
+        <v>353.696</v>
       </c>
       <c r="O6">
-        <v>1014.35</v>
+        <v>-135.65</v>
       </c>
       <c r="P6">
-        <v>422.5702824</v>
+        <v>319.6747262929157</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -935,27 +952,30 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>1</v>
       </c>
       <c r="X6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y6">
         <v>1</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
         <v>1</v>
       </c>
     </row>
@@ -1002,13 +1022,13 @@
         <v>62.49581823795481</v>
       </c>
       <c r="N7">
-        <v>23.99600000000001</v>
+        <v>354.9840000000001</v>
       </c>
       <c r="O7">
-        <v>1026.46</v>
+        <v>-173.54</v>
       </c>
       <c r="P7">
-        <v>434.6800416</v>
+        <v>311.7106826918244</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -1029,25 +1049,28 @@
         <v>2</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
         <v>1</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC7">
         <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1093,13 +1116,13 @@
         <v>71.93879289244249</v>
       </c>
       <c r="N8">
-        <v>141.708</v>
+        <v>360.472</v>
       </c>
       <c r="O8">
-        <v>1232.04</v>
+        <v>-167.96</v>
       </c>
       <c r="P8">
-        <v>402.7145904</v>
+        <v>287.6081112505954</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -1120,25 +1143,28 @@
         <v>4</v>
       </c>
       <c r="W8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>1</v>
       </c>
       <c r="Y8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA8">
         <v>1</v>
       </c>
       <c r="AB8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1184,13 +1210,13 @@
         <v>64.86325909782767</v>
       </c>
       <c r="N9">
-        <v>65.80000000000001</v>
+        <v>276.528</v>
       </c>
       <c r="O9">
-        <v>1033.92</v>
+        <v>-166.08</v>
       </c>
       <c r="P9">
-        <v>463.2105528</v>
+        <v>354.8688727857878</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -1208,28 +1234,31 @@
         <v>4</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X9">
         <v>5</v>
       </c>
       <c r="Y9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC9">
         <v>4</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
